--- a/workfile/锐安项目文档/收尾文档/bi优化结果.xlsx
+++ b/workfile/锐安项目文档/收尾文档/bi优化结果.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -561,12 +561,18 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -710,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -731,15 +737,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,6 +753,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:E63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1874,767 +1893,767 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" s="21" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="20">
         <v>5.376666666666666</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="20">
         <v>5.48</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="20">
         <v>3.66</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="20">
         <v>8.0933333333333337</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="20">
         <v>4.0733333333333333</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" s="21" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="20">
         <v>5.0333333333333341</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="33">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" s="21" customFormat="1" ht="33">
+      <c r="A23" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="20">
         <v>5.6833333333333336</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="20">
         <v>3.5433333333333334</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="20">
         <v>7.3366666666666669</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="20">
         <v>4.9066666666666663</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A28" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="20">
         <v>12.089999999999998</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="20">
         <v>2.1133333333333333</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A30" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="20">
         <v>1.1466666666666665</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A31" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="20">
         <v>2.0133333333333332</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A32" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="20">
         <v>1.97</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="20">
         <v>1.87</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="20">
         <v>8.163333333333334</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A35" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="20">
         <v>3.5433333333333334</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="20">
         <v>2.1</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.5">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="20">
         <v>2.33</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.5">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="20">
         <v>2.06</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="20">
         <v>1.96</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="33">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:6" s="21" customFormat="1" ht="33">
+      <c r="A40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="20">
         <v>2.34</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="20">
         <v>1.91</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.5">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="20">
         <v>2.19</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="20">
         <v>1.96</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:6" s="21" customFormat="1" ht="33">
+      <c r="A45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="20">
         <v>1.83</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="20">
         <v>2.14</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.5">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="20">
         <v>1.6</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A48" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="20">
         <v>1.84</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="20">
         <v>2.27</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16.5">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A50" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="20">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A51" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="20">
         <v>1.78</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A52" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="20">
         <v>1.92</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A53" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="20">
         <v>1.74</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A54" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="20">
         <v>1.6</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16.5">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:6" s="21" customFormat="1" ht="16.5">
+      <c r="A55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2734,72 +2753,72 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="14.25">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="14.25">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="2:5" ht="14.25">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="2:5" ht="14.25">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="2:5" ht="14.25">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="2:5" ht="15" thickBot="1">
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
